--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_6_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77200.96409704059</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77200.96409704059</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188076560.466242</v>
+        <v>43352454.00956365</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12242.78951577103</v>
+        <v>972186.1312146385</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23909.03812206467</v>
+        <v>1842445.721363462</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35556.7248788852</v>
+        <v>2712705.311512285</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47452.48362461964</v>
+        <v>3582092.65633413</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59348.24237035407</v>
+        <v>4451480.001155973</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71243.9974576945</v>
+        <v>5320867.345977817</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83139.69042401087</v>
+        <v>6190254.690799655</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95035.44551135132</v>
+        <v>7059642.035621494</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>106931.2042570858</v>
+        <v>7929029.380443333</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>118826.8972234022</v>
+        <v>8798416.725265171</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130722.6559691366</v>
+        <v>9667804.070087012</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142618.4001474788</v>
+        <v>10537191.41490886</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154514.1473763643</v>
+        <v>11406578.75973071</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166409.9061220987</v>
+        <v>12275966.10455256</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178305.6648678333</v>
+        <v>13145353.44937441</v>
       </c>
     </row>
   </sheetData>
